--- a/06-03-2023/data/output/xlsx/sample_0/12_causality.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/12_causality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="137">
   <si>
     <t>name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__17</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -136,6 +133,30 @@
     <t>num_of_decimals__21</t>
   </si>
   <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
@@ -172,6 +193,18 @@
     <t>num_of_equals__12</t>
   </si>
   <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__14</t>
+  </si>
+  <si>
+    <t>num_of_equals__15</t>
+  </si>
+  <si>
+    <t>num_of_equals__16</t>
+  </si>
+  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
@@ -220,6 +253,9 @@
     <t>num_of_mults_and_divs__15</t>
   </si>
   <si>
+    <t>num_of_mults_and_divs__16</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
@@ -250,9 +286,6 @@
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
     <t>num_of_unknowns__2</t>
   </si>
   <si>
@@ -292,21 +325,6 @@
     <t>pairs_of_parentheses__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__15</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__16</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__17</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
@@ -334,136 +352,79 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
   </si>
 </sst>
 </file>
@@ -821,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -858,22 +819,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="D2">
-        <v>0.08454133511685699</v>
+        <v>0.01413283662134724</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F2">
-        <v>0.003099173553719008</v>
+        <v>0.006160164271047228</v>
       </c>
       <c r="G2">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H2">
-        <v>9.316152967091219E-05</v>
+        <v>0.0001481402229510358</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -884,19 +845,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>835</v>
-      </c>
-      <c r="D3" t="s">
-        <v>105</v>
+        <v>847</v>
+      </c>
+      <c r="D3">
+        <v>0.01496557509141403</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
       </c>
       <c r="F3">
-        <v>0.002395209580838323</v>
+        <v>0.007083825265643448</v>
       </c>
       <c r="G3">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H3">
-        <v>-0.0006108024432097728</v>
+        <v>0.001071801217547255</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -907,19 +871,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H4">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -930,19 +894,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H5">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -956,16 +920,16 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H6">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -979,16 +943,16 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H7">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1002,16 +966,16 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H8">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1022,19 +986,19 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H9">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1045,19 +1009,19 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H10">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1068,19 +1032,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>105</v>
+        <v>444</v>
+      </c>
+      <c r="D11">
+        <v>0.001081181362918292</v>
+      </c>
+      <c r="E11" t="s">
+        <v>114</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="G11">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H11">
-        <v>-0.003006012024048096</v>
+        <v>0.0007447327086605648</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1091,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>427</v>
+        <v>310</v>
       </c>
       <c r="D12">
-        <v>0.08578740738301396</v>
+        <v>0.007862023395057429</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F12">
-        <v>0.00468384074941452</v>
+        <v>0.00967741935483871</v>
       </c>
       <c r="G12">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H12">
-        <v>0.001677828725366424</v>
+        <v>0.003665395306742518</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1117,22 +1084,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="D13">
-        <v>0.08720969140845496</v>
+        <v>0.008823987008041299</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F13">
-        <v>0.003389830508474576</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="G13">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H13">
-        <v>0.00038381848442648</v>
+        <v>0.003888966050913709</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1143,22 +1110,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D14">
-        <v>0.09202134281806137</v>
+        <v>0.01312207864648997</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F14">
-        <v>0.005714285714285714</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="G14">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H14">
-        <v>0.002708273690237618</v>
+        <v>0.007145870688745912</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1169,22 +1136,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="D15">
-        <v>0.09430627598024981</v>
+        <v>-0.01720294372589241</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F15">
-        <v>0.007692307692307693</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="G15">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H15">
-        <v>0.004686295668259597</v>
+        <v>0.004192057584556868</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1195,19 +1162,19 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H16">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1218,19 +1185,19 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H17">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1244,16 +1211,16 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H18">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1264,19 +1231,19 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>654</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.003058103975535168</v>
       </c>
       <c r="G19">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H19">
-        <v>-0.003006012024048096</v>
+        <v>-0.002953920072561024</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1287,22 +1254,19 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>650</v>
-      </c>
-      <c r="D20">
-        <v>0.08537559775060719</v>
-      </c>
-      <c r="E20" t="s">
+        <v>527</v>
+      </c>
+      <c r="D20" t="s">
         <v>111</v>
       </c>
       <c r="F20">
-        <v>0.004615384615384616</v>
+        <v>0.003795066413662239</v>
       </c>
       <c r="G20">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H20">
-        <v>0.00160937259133652</v>
+        <v>-0.002216957634433953</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1313,22 +1277,19 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>522</v>
-      </c>
-      <c r="D21">
-        <v>0.08473475357275179</v>
-      </c>
-      <c r="E21" t="s">
-        <v>112</v>
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
       </c>
       <c r="F21">
-        <v>0.003831417624521073</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H21">
-        <v>0.0008254056004729764</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1339,22 +1300,19 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>36</v>
-      </c>
-      <c r="D22">
-        <v>0.1518549830964537</v>
-      </c>
-      <c r="E22" t="s">
-        <v>113</v>
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
       </c>
       <c r="F22">
-        <v>0.02777777777777778</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H22">
-        <v>0.02477176575372968</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1365,22 +1323,19 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>27</v>
-      </c>
-      <c r="D23">
-        <v>0.1580573854061517</v>
-      </c>
-      <c r="E23" t="s">
-        <v>114</v>
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>111</v>
       </c>
       <c r="F23">
-        <v>0.03703703703703703</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H23">
-        <v>0.03403102501298894</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1391,22 +1346,19 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>16</v>
-      </c>
-      <c r="D24">
-        <v>0.1794502403429412</v>
-      </c>
-      <c r="E24" t="s">
-        <v>115</v>
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
       </c>
       <c r="F24">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H24">
-        <v>0.0594939879759519</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1417,22 +1369,19 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>12</v>
-      </c>
-      <c r="D25">
-        <v>0.1969346949924282</v>
-      </c>
-      <c r="E25" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>111</v>
       </c>
       <c r="F25">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H25">
-        <v>0.08032732130928523</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1443,22 +1392,19 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>0.2166001193710014</v>
-      </c>
-      <c r="E26" t="s">
-        <v>117</v>
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
       </c>
       <c r="F26">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H26">
-        <v>0.108105099087063</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1471,20 +1417,17 @@
       <c r="C27">
         <v>8</v>
       </c>
-      <c r="D27">
-        <v>0.2996875386266962</v>
-      </c>
-      <c r="E27" t="s">
-        <v>118</v>
+      <c r="D27" t="s">
+        <v>111</v>
       </c>
       <c r="F27">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H27">
-        <v>0.1219939879759519</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1495,19 +1438,19 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H28">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1518,19 +1461,19 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H29">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1544,16 +1487,16 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H30">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1564,19 +1507,19 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H31">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1587,22 +1530,19 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>411</v>
-      </c>
-      <c r="D32">
-        <v>0.08876070501663472</v>
-      </c>
-      <c r="E32" t="s">
-        <v>119</v>
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
       </c>
       <c r="F32">
-        <v>0.004866180048661801</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H32">
-        <v>0.001860168024613704</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1613,19 +1553,19 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H33">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1639,16 +1579,16 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H34">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1659,22 +1599,19 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>303</v>
-      </c>
-      <c r="D35">
-        <v>0.09068919286314039</v>
-      </c>
-      <c r="E35" t="s">
-        <v>120</v>
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
       </c>
       <c r="F35">
-        <v>0.006600660066006601</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H35">
-        <v>0.003594648041958505</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1685,22 +1622,19 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>207</v>
-      </c>
-      <c r="D36">
-        <v>0.09689727010569539</v>
-      </c>
-      <c r="E36" t="s">
-        <v>121</v>
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>111</v>
       </c>
       <c r="F36">
-        <v>0.00966183574879227</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H36">
-        <v>0.006655823724744174</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1711,22 +1645,19 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>163</v>
-      </c>
-      <c r="D37">
-        <v>0.09939332376561913</v>
-      </c>
-      <c r="E37" t="s">
-        <v>122</v>
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
       </c>
       <c r="F37">
-        <v>0.01226993865030675</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H37">
-        <v>0.009263926626258653</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1737,22 +1668,19 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>112</v>
-      </c>
-      <c r="D38">
-        <v>0.1034496913630881</v>
-      </c>
-      <c r="E38" t="s">
-        <v>123</v>
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
       </c>
       <c r="F38">
-        <v>0.008928571428571428</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H38">
-        <v>0.005922559404523332</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1763,22 +1691,19 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>89</v>
-      </c>
-      <c r="D39">
-        <v>0.1082345937402943</v>
-      </c>
-      <c r="E39" t="s">
-        <v>124</v>
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>111</v>
       </c>
       <c r="F39">
-        <v>0.01123595505617977</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H39">
-        <v>0.008229943032131679</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1789,22 +1714,19 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>59</v>
-      </c>
-      <c r="D40">
-        <v>0.1149219413187435</v>
-      </c>
-      <c r="E40" t="s">
-        <v>125</v>
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
       </c>
       <c r="F40">
-        <v>0.01694915254237288</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H40">
-        <v>0.01394314051832479</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1815,22 +1737,19 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>45</v>
-      </c>
-      <c r="D41">
-        <v>0.1287169001249702</v>
-      </c>
-      <c r="E41" t="s">
-        <v>126</v>
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
       </c>
       <c r="F41">
-        <v>0.02222222222222222</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H41">
-        <v>0.01921621019817413</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1841,22 +1760,19 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>996</v>
-      </c>
-      <c r="D42">
-        <v>0.08419843727216372</v>
-      </c>
-      <c r="E42" t="s">
-        <v>127</v>
+        <v>296</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
       </c>
       <c r="F42">
-        <v>0.003012048192771084</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H42">
-        <v>6.036168722988334E-06</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1867,22 +1783,19 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>991</v>
-      </c>
-      <c r="D43">
-        <v>0.08420118429274077</v>
-      </c>
-      <c r="E43" t="s">
-        <v>128</v>
+        <v>215</v>
+      </c>
+      <c r="D43" t="s">
+        <v>111</v>
       </c>
       <c r="F43">
-        <v>0.003027245206861756</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H43">
-        <v>2.123318281365945E-05</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1893,19 +1806,19 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H44">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1916,19 +1829,19 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H45">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1939,19 +1852,19 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H46">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1962,22 +1875,19 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>649</v>
-      </c>
-      <c r="D47">
-        <v>0.0846349805963303</v>
-      </c>
-      <c r="E47" t="s">
-        <v>129</v>
+        <v>74</v>
+      </c>
+      <c r="D47" t="s">
+        <v>111</v>
       </c>
       <c r="F47">
-        <v>0.004622496147919877</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H47">
-        <v>0.001616484123871781</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1988,22 +1898,19 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>475</v>
-      </c>
-      <c r="D48">
-        <v>0.08526131881746059</v>
-      </c>
-      <c r="E48" t="s">
-        <v>130</v>
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>111</v>
       </c>
       <c r="F48">
-        <v>0.00631578947368421</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H48">
-        <v>0.003309777449636114</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2014,22 +1921,22 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>307</v>
+        <v>996</v>
       </c>
       <c r="D49">
-        <v>0.08490781712388228</v>
+        <v>0.01402952660109436</v>
       </c>
       <c r="E49" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F49">
-        <v>0.006514657980456026</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="G49">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H49">
-        <v>0.00350864595640793</v>
+        <v>1.207233744597667E-05</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2040,22 +1947,22 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>233</v>
+        <v>988</v>
       </c>
       <c r="D50">
-        <v>0.08651673252846091</v>
+        <v>0.01407717577637315</v>
       </c>
       <c r="E50" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F50">
-        <v>0.004291845493562232</v>
+        <v>0.006072874493927126</v>
       </c>
       <c r="G50">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H50">
-        <v>0.001285833469514136</v>
+        <v>6.085044583093325E-05</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2066,22 +1973,22 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>0.09203833175145316</v>
+        <v>0.05332712372705665</v>
       </c>
       <c r="E51" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F51">
-        <v>0.006493506493506494</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G51">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H51">
-        <v>0.003487494469458398</v>
+        <v>0.06065464261857047</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2092,22 +1999,19 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>101</v>
-      </c>
-      <c r="D52">
-        <v>0.09748919279385215</v>
-      </c>
-      <c r="E52" t="s">
-        <v>134</v>
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>111</v>
       </c>
       <c r="F52">
-        <v>0.009900990099009901</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H52">
-        <v>0.006894978074961805</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2118,22 +2022,19 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>62</v>
-      </c>
-      <c r="D53">
-        <v>0.1090560384725912</v>
-      </c>
-      <c r="E53" t="s">
-        <v>135</v>
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>111</v>
       </c>
       <c r="F53">
-        <v>0.01612903225806452</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H53">
-        <v>0.01312302023401642</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2144,19 +2045,19 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H54">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2167,19 +2068,19 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>216</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H55">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2190,19 +2091,19 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H56">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2213,19 +2114,19 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H57">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2236,19 +2137,22 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>105</v>
+        <v>636</v>
+      </c>
+      <c r="D58">
+        <v>0.01312435603250846</v>
+      </c>
+      <c r="E58" t="s">
+        <v>122</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="G58">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H58">
-        <v>-0.003006012024048096</v>
+        <v>0.0002772841280044369</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2259,19 +2163,22 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>105</v>
+        <v>486</v>
+      </c>
+      <c r="D59">
+        <v>0.008790355419559328</v>
+      </c>
+      <c r="E59" t="s">
+        <v>123</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="G59">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H59">
-        <v>-0.003006012024048096</v>
+        <v>0.0001608154580766468</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2282,19 +2189,22 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>3</v>
-      </c>
-      <c r="D60" t="s">
-        <v>105</v>
+        <v>320</v>
+      </c>
+      <c r="D60">
+        <v>0.0123567486521581</v>
+      </c>
+      <c r="E60" t="s">
+        <v>124</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.009375</v>
       </c>
       <c r="G60">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H60">
-        <v>-0.003006012024048096</v>
+        <v>0.003362975951903807</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2305,19 +2215,22 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61" t="s">
-        <v>105</v>
+        <v>236</v>
+      </c>
+      <c r="D61">
+        <v>-0.0005706812464474877</v>
+      </c>
+      <c r="E61" t="s">
+        <v>125</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="G61">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H61">
-        <v>-0.003006012024048096</v>
+        <v>0.002462552223090248</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2328,19 +2241,22 @@
         <v>67</v>
       </c>
       <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>105</v>
+        <v>167</v>
+      </c>
+      <c r="D62">
+        <v>0.005772665741016623</v>
+      </c>
+      <c r="E62" t="s">
+        <v>126</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="G62">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H62">
-        <v>-0.003006012024048096</v>
+        <v>0.005964023856095425</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2353,17 +2269,20 @@
       <c r="C63">
         <v>110</v>
       </c>
-      <c r="D63" t="s">
-        <v>105</v>
+      <c r="D63">
+        <v>0.01326291425002896</v>
+      </c>
+      <c r="E63" t="s">
+        <v>127</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G63">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H63">
-        <v>-0.003006012024048096</v>
+        <v>0.01216979413372199</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2374,19 +2293,22 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>93</v>
-      </c>
-      <c r="D64" t="s">
-        <v>105</v>
+        <v>65</v>
+      </c>
+      <c r="D64">
+        <v>0.01001146591771124</v>
+      </c>
+      <c r="E64" t="s">
+        <v>128</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="G64">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H64">
-        <v>-0.003006012024048096</v>
+        <v>0.009372591336519194</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2397,19 +2319,22 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>69</v>
-      </c>
-      <c r="D65" t="s">
-        <v>105</v>
+        <v>34</v>
+      </c>
+      <c r="D65">
+        <v>0.02182504522473907</v>
+      </c>
+      <c r="E65" t="s">
+        <v>129</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="G65">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H65">
-        <v>-0.003006012024048096</v>
+        <v>0.02339974065778616</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2420,19 +2345,19 @@
         <v>71</v>
       </c>
       <c r="C66">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="D66" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="G66">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H66">
-        <v>-0.003006012024048096</v>
+        <v>-0.001567579603651748</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2443,19 +2368,19 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="G67">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H67">
-        <v>-0.003006012024048096</v>
+        <v>-0.0003940465200063048</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2466,19 +2391,19 @@
         <v>73</v>
       </c>
       <c r="C68">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H68">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2489,19 +2414,19 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H69">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2512,19 +2437,19 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H70">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2535,19 +2460,19 @@
         <v>76</v>
       </c>
       <c r="C71">
-        <v>998</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F71">
-        <v>0.003006012024048096</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2558,22 +2483,19 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>708</v>
-      </c>
-      <c r="D72">
-        <v>0.08606119440171126</v>
-      </c>
-      <c r="E72" t="s">
-        <v>136</v>
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>111</v>
       </c>
       <c r="F72">
-        <v>0.00423728813559322</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H72">
-        <v>0.001231276111545124</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2584,22 +2506,19 @@
         <v>78</v>
       </c>
       <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>0.9989344162069183</v>
-      </c>
-      <c r="E73" t="s">
-        <v>137</v>
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>111</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H73">
-        <v>0.996993987975952</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2610,22 +2529,19 @@
         <v>79</v>
       </c>
       <c r="C74">
-        <v>121</v>
-      </c>
-      <c r="D74">
-        <v>0.1082142837832025</v>
-      </c>
-      <c r="E74" t="s">
-        <v>138</v>
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>111</v>
       </c>
       <c r="F74">
-        <v>0.008264462809917356</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H74">
-        <v>0.00525845078586926</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2636,22 +2552,19 @@
         <v>80</v>
       </c>
       <c r="C75">
-        <v>54</v>
-      </c>
-      <c r="D75">
-        <v>0.1821650449213977</v>
-      </c>
-      <c r="E75" t="s">
-        <v>139</v>
+        <v>115</v>
+      </c>
+      <c r="D75" t="s">
+        <v>111</v>
       </c>
       <c r="F75">
-        <v>0.01851851851851852</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H75">
-        <v>0.01551250649447042</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2662,22 +2575,19 @@
         <v>81</v>
       </c>
       <c r="C76">
-        <v>31</v>
-      </c>
-      <c r="D76">
-        <v>0.1995685581980472</v>
-      </c>
-      <c r="E76" t="s">
-        <v>140</v>
+        <v>87</v>
+      </c>
+      <c r="D76" t="s">
+        <v>111</v>
       </c>
       <c r="F76">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H76">
-        <v>0.02925205249208094</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2688,22 +2598,19 @@
         <v>82</v>
       </c>
       <c r="C77">
-        <v>21</v>
-      </c>
-      <c r="D77">
-        <v>0.2168075477858503</v>
-      </c>
-      <c r="E77" t="s">
-        <v>141</v>
+        <v>56</v>
+      </c>
+      <c r="D77" t="s">
+        <v>111</v>
       </c>
       <c r="F77">
-        <v>0.04761904761904762</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H77">
-        <v>0.04461303559499952</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2714,22 +2621,19 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <v>11</v>
-      </c>
-      <c r="D78">
-        <v>0.2469648903586947</v>
-      </c>
-      <c r="E78" t="s">
-        <v>142</v>
+        <v>45</v>
+      </c>
+      <c r="D78" t="s">
+        <v>111</v>
       </c>
       <c r="F78">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H78">
-        <v>0.08790307888504281</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2740,22 +2644,19 @@
         <v>84</v>
       </c>
       <c r="C79">
-        <v>4</v>
-      </c>
-      <c r="D79">
-        <v>0.3807113864200364</v>
-      </c>
-      <c r="E79" t="s">
-        <v>143</v>
+        <v>28</v>
+      </c>
+      <c r="D79" t="s">
+        <v>111</v>
       </c>
       <c r="F79">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H79">
-        <v>0.2469939879759519</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2766,22 +2667,19 @@
         <v>85</v>
       </c>
       <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="D80">
-        <v>0.5454429652093096</v>
-      </c>
-      <c r="E80" t="s">
-        <v>144</v>
+        <v>21</v>
+      </c>
+      <c r="D80" t="s">
+        <v>111</v>
       </c>
       <c r="F80">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H80">
-        <v>0.4969939879759519</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2792,22 +2690,19 @@
         <v>86</v>
       </c>
       <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>0.9989344162069183</v>
-      </c>
-      <c r="E81" t="s">
-        <v>145</v>
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>111</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H81">
-        <v>0.996993987975952</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2818,22 +2713,19 @@
         <v>87</v>
       </c>
       <c r="C82">
-        <v>457</v>
-      </c>
-      <c r="D82">
-        <v>0.08307927372545323</v>
-      </c>
-      <c r="E82" t="s">
-        <v>146</v>
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>111</v>
       </c>
       <c r="F82">
-        <v>0.00437636761487965</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H82">
-        <v>0.001370355590831554</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2844,22 +2736,22 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>180</v>
+        <v>997</v>
       </c>
       <c r="D83">
-        <v>0.09293405164496399</v>
+        <v>0.01398957179512102</v>
       </c>
       <c r="E83" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F83">
-        <v>0.005555555555555556</v>
+        <v>0.006018054162487462</v>
       </c>
       <c r="G83">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H83">
-        <v>0.00254954353150746</v>
+        <v>6.030114391269645E-06</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2870,19 +2762,22 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>105</v>
+        <v>704</v>
+      </c>
+      <c r="D84">
+        <v>0.01564171575882123</v>
+      </c>
+      <c r="E84" t="s">
+        <v>131</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.008522727272727272</v>
       </c>
       <c r="G84">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H84">
-        <v>-0.003006012024048096</v>
+        <v>0.00251070322463108</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2893,19 +2788,22 @@
         <v>90</v>
       </c>
       <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>105</v>
+        <v>119</v>
+      </c>
+      <c r="D85">
+        <v>0.04006876030770548</v>
+      </c>
+      <c r="E85" t="s">
+        <v>132</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.03361344537815126</v>
       </c>
       <c r="G85">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H85">
-        <v>-0.003006012024048096</v>
+        <v>0.02760142133005507</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2916,19 +2814,22 @@
         <v>91</v>
       </c>
       <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>105</v>
+        <v>57</v>
+      </c>
+      <c r="D86">
+        <v>0.0197277624630063</v>
+      </c>
+      <c r="E86" t="s">
+        <v>133</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="G86">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H86">
-        <v>-0.003006012024048096</v>
+        <v>0.01153183560102661</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2939,19 +2840,19 @@
         <v>92</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H87">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2962,19 +2863,19 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H88">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2985,19 +2886,19 @@
         <v>94</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H89">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3008,19 +2909,19 @@
         <v>95</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H90">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3031,19 +2932,19 @@
         <v>96</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H91">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3054,22 +2955,19 @@
         <v>97</v>
       </c>
       <c r="C92">
-        <v>94</v>
-      </c>
-      <c r="D92">
-        <v>0.1009958726411908</v>
-      </c>
-      <c r="E92" t="s">
-        <v>148</v>
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>111</v>
       </c>
       <c r="F92">
-        <v>0.01063829787234043</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H92">
-        <v>0.00763228584829233</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3080,22 +2978,22 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <v>55</v>
+        <v>466</v>
       </c>
       <c r="D93">
-        <v>0.1381232919077768</v>
+        <v>-0.0488455232557209</v>
       </c>
       <c r="E93" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F93">
-        <v>0.01818181818181818</v>
+        <v>0.006437768240343348</v>
       </c>
       <c r="G93">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H93">
-        <v>0.01517580615777009</v>
+        <v>0.0004257441922471553</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3106,19 +3004,22 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>30</v>
-      </c>
-      <c r="D94" t="s">
-        <v>105</v>
+        <v>184</v>
+      </c>
+      <c r="D94">
+        <v>-0.00963842994099566</v>
+      </c>
+      <c r="E94" t="s">
+        <v>135</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="G94">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H94">
-        <v>-0.003006012024048096</v>
+        <v>0.004857541169295112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3129,19 +3030,19 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H95">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3152,19 +3053,19 @@
         <v>101</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H96">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3175,19 +3076,19 @@
         <v>102</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H97">
-        <v>-0.003006012024048096</v>
+        <v>-0.006012024048096192</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3198,19 +3099,22 @@
         <v>103</v>
       </c>
       <c r="C98">
-        <v>2</v>
-      </c>
-      <c r="D98" t="s">
-        <v>105</v>
+        <v>85</v>
+      </c>
+      <c r="D98">
+        <v>-0.007295116561957371</v>
+      </c>
+      <c r="E98" t="s">
+        <v>136</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="G98">
-        <v>0.003006012024048096</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="H98">
-        <v>-0.003006012024048096</v>
+        <v>0.005752681834256749</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3221,19 +3125,157 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D99" t="s">
+        <v>111</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0.006012024048096192</v>
+      </c>
+      <c r="H99">
+        <v>-0.006012024048096192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
         <v>105</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0.003006012024048096</v>
-      </c>
-      <c r="H99">
-        <v>-0.003006012024048096</v>
+      <c r="C100">
+        <v>23</v>
+      </c>
+      <c r="D100" t="s">
+        <v>111</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0.006012024048096192</v>
+      </c>
+      <c r="H100">
+        <v>-0.006012024048096192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>111</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0.006012024048096192</v>
+      </c>
+      <c r="H101">
+        <v>-0.006012024048096192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>111</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0.006012024048096192</v>
+      </c>
+      <c r="H102">
+        <v>-0.006012024048096192</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>111</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0.006012024048096192</v>
+      </c>
+      <c r="H103">
+        <v>-0.006012024048096192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>111</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0.006012024048096192</v>
+      </c>
+      <c r="H104">
+        <v>-0.006012024048096192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>111</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0.006012024048096192</v>
+      </c>
+      <c r="H105">
+        <v>-0.006012024048096192</v>
       </c>
     </row>
   </sheetData>
